--- a/biology/Zoologie/Ctenomys_andersoni/Ctenomys_andersoni.xlsx
+++ b/biology/Zoologie/Ctenomys_andersoni/Ctenomys_andersoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenomys andersoni est une espèce de rongeur de la famille des Ctenomyidae. Comme les autres membres du genre Ctenomys, appelés localement des tuco-tucos, c'est un petit mammifère d'Amérique du Sud bâti pour creuser des terriers. 
 L'espèce a été identifiée en Bolivie pour la première fois en 2014 par l'équipe de Scott Gardner (d).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Ctenomys andersoni, un mâle adulte[1], mesure 271 mm dont 73 mm pour la queue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Ctenomys andersoni, un mâle adulte, mesure 271 mm dont 73 mm pour la queue.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, andersoni, lui a été donné en l'honneur de Sydney Anderson (d), conservateur au département de Mammalogie au Musée américain d'histoire naturelle[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, andersoni, lui a été donné en l'honneur de Sydney Anderson (d), conservateur au département de Mammalogie au Musée américain d'histoire naturelle.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Scott L Gardner, Jorge Salazar-Bravo et Joseph A Cook, « New Species of Ctenomys Blainville 1826 (Rodentia: Ctenomyidae) from the Lowlands and Central Valleys of Bolivia », Special Publications - Museum of Texas Tech University, Lubbock, Inconnu, vol. 62, no 62,‎ 2014, p. 1-34 (ISBN 1-929330-26-X, ISSN 0149-1768, OCLC 1521585, DOI 10.5962/BHL.TITLE.142814, lire en ligne)</t>
         </is>
